--- a/intunittes.xlsx
+++ b/intunittes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F95E008-FAD9-4E4E-B2D8-7FD930A8CF13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7074D152-3446-478B-A28D-649E59EE6C39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/intunittes.xlsx
+++ b/intunittes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7074D152-3446-478B-A28D-649E59EE6C39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00CA4D7-20A3-49E3-A318-70D0DBC415D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GA_genericunittesthana" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="154">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -874,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -1666,7 +1666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1736,6 +1738,9 @@
       <c r="H2" t="s">
         <v>123</v>
       </c>
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -1798,6 +1803,9 @@
       <c r="H6" t="s">
         <v>138</v>
       </c>
+      <c r="I6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -1832,6 +1840,9 @@
       <c r="H8" t="s">
         <v>144</v>
       </c>
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -1893,6 +1904,9 @@
       </c>
       <c r="H12" t="s">
         <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
